--- a/diary/2017-7-06(L).xlsx
+++ b/diary/2017-7-06(L).xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -644,6 +644,9 @@
       <c r="D8" s="1">
         <v>17.100000000000001</v>
       </c>
+      <c r="F8" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -713,7 +716,7 @@
       </c>
       <c r="F18" s="1">
         <f>SUM(F4:F17)</f>
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
